--- a/biology/Médecine/Artère_sacrée_latérale/Artère_sacrée_latérale.xlsx
+++ b/biology/Médecine/Artère_sacrée_latérale/Artère_sacrée_latérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_sacr%C3%A9e_lat%C3%A9rale</t>
+          <t>Artère_sacrée_latérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère sacrée latérale[1] est une artère du petit bassin, branche du tronc postérieur de l'artère iliaque interne. C'est une artère double, constituée d'une artère supérieure, plus grosse, et d'une artère inférieure, anastomosée avec l'artère inférieure controlatérale et l'artère sacrale médiane. Ces artères vascularisant le sacrum.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère sacrée latérale est une artère du petit bassin, branche du tronc postérieur de l'artère iliaque interne. C'est une artère double, constituée d'une artère supérieure, plus grosse, et d'une artère inférieure, anastomosée avec l'artère inférieure controlatérale et l'artère sacrale médiane. Ces artères vascularisant le sacrum.
 L'artère sacrale latérale supérieure rejoint le premier foramen sacral ventral pour se diviser en deux branches, une branche qui vascularise la moelle spinale et l'autre qui vascularise les muscles des membres inférieurs.
 </t>
         </is>
